--- a/Bank/Bank_Data.xlsx
+++ b/Bank/Bank_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdbb21a5dbde31e1/Documents/UVic/CSC 370/Database Project/Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738886CA-2C8A-4F7E-B699-18787AE5989C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF49B983-9AF2-47B1-A9C4-0D19BBEC21BD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,10 +397,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bank/Bank_Data.xlsx
+++ b/Bank/Bank_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdbb21a5dbde31e1/Documents/UVic/CSC 370/Database Project/Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF49B983-9AF2-47B1-A9C4-0D19BBEC21BD}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D19B9B3-1CAA-4DA8-98E3-1C8CE0CA2679}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +387,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20240519</v>
+        <v>1005151</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/Bank/Bank_Data.xlsx
+++ b/Bank/Bank_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdbb21a5dbde31e1/Documents/UVic/CSC 370/Database Project/Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D19B9B3-1CAA-4DA8-98E3-1C8CE0CA2679}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AFE9904-0E5B-400D-87A6-866AEEE89C2E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Location</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Branch_Num</t>
+  </si>
+  <si>
+    <t>Sidney</t>
   </si>
 </sst>
 </file>
@@ -92,6 +95,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +406,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2117272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bank/Bank_Data.xlsx
+++ b/Bank/Bank_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdbb21a5dbde31e1/Documents/UVic/CSC 370/Database Project/Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AFE9904-0E5B-400D-87A6-866AEEE89C2E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430A4583-F281-45F1-8FA2-B5AD6B6C910A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Num_Clients</t>
-  </si>
-  <si>
-    <t>Num_Employees</t>
   </si>
   <si>
     <t>Victoria</t>
@@ -364,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,46 +372,28 @@
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1005151</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2117272</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
